--- a/docs/dataset-sports-and-leagues-sql-kobe.xlsx
+++ b/docs/dataset-sports-and-leagues-sql-kobe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24460" windowHeight="13100" activeTab="1"/>
+    <workbookView xWindow="2560" yWindow="2500" windowWidth="24460" windowHeight="13100"/>
   </bookViews>
   <sheets>
     <sheet name="Deportes" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="121">
   <si>
     <t>Audi Cup</t>
   </si>
@@ -265,9 +265,6 @@
     <t>Emiratos Arabes Unidos - UAE League Emirates</t>
   </si>
   <si>
-    <t>Ecuador - Ecuador Serie A</t>
-  </si>
-  <si>
     <t>Escocia - PremierShip Scotland</t>
   </si>
   <si>
@@ -368,6 +365,24 @@
   </si>
   <si>
     <t>SQL</t>
+  </si>
+  <si>
+    <t>Canadian Football League</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuador - Ecuador Serie A </t>
+  </si>
+  <si>
+    <t>Holanda - Dutch League Eredivisie</t>
+  </si>
+  <si>
+    <t>India - I-League</t>
+  </si>
+  <si>
+    <t>Paraguay - Paraguay Primera División</t>
+  </si>
+  <si>
+    <t>Rusia - Russian Premier League</t>
   </si>
 </sst>
 </file>
@@ -422,8 +437,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -507,7 +530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="77">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -542,6 +565,10 @@
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -576,6 +603,10 @@
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -880,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F2:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -909,7 +940,7 @@
         <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -952,7 +983,7 @@
         <v>120</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F22" si="1">CONCATENATE("INSERT INTO sport (id, name, slug, in_home, duration) VALUES (",A3,",'",B3,"','",C3,"',",D3,",",E3,");")</f>
+        <f t="shared" ref="F3:F17" si="1">CONCATENATE("INSERT INTO sport (id, name, slug, in_home, duration) VALUES (",A3,",'",B3,"','",C3,"',",D3,",",E3,");")</f>
         <v>INSERT INTO sport (id, name, slug, in_home, duration) VALUES (2,'BASKETBALL','basketball',1,120);</v>
       </c>
     </row>
@@ -1125,11 +1156,11 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO sport (id, name, slug, in_home, duration) VALUES (10,'DARTS','darts',0,60);</v>
+        <v>INSERT INTO sport (id, name, slug, in_home, duration) VALUES (10,'DARTS','darts',0,120);</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1147,11 +1178,11 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO sport (id, name, slug, in_home, duration) VALUES (11,'POKER','poker',0,60);</v>
+        <v>INSERT INTO sport (id, name, slug, in_home, duration) VALUES (11,'POKER','poker',0,120);</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1257,11 +1288,11 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO sport (id, name, slug, in_home, duration) VALUES (16,'OTHERS','others',0,60);</v>
+        <v>INSERT INTO sport (id, name, slug, in_home, duration) VALUES (16,'OTHERS','others',0,120);</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1617,17 +1648,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F106"/>
+  <dimension ref="B1:F111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="B96" workbookViewId="0">
+      <selection activeCell="F111" sqref="F2:F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.33203125" customWidth="1"/>
-    <col min="6" max="6" width="84.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1645,7 +1676,7 @@
         <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="2:6">
@@ -1656,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -1800,14 +1831,14 @@
         <v>1</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="2">
+        <v>115</v>
+      </c>
+      <c r="E10" s="6">
         <v>1</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (9,1,'Chile - Chilean Primera División',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (9,1,'Canadian Football League',1);</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -1818,14 +1849,14 @@
         <v>1</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (10,1,'China - Chinese Super League',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (10,1,'Chile - Chilean Primera División',1);</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -1836,14 +1867,14 @@
         <v>1</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (11,1,'Colombia - Colombian League Categoría Primera A',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (11,1,'China - Chinese Super League',1);</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -1854,14 +1885,14 @@
         <v>1</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (12,1,'Corea del Sur - South Korea's K-League',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (12,1,'Colombia - Colombian League Categoría Primera A',1);</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -1872,14 +1903,14 @@
         <v>1</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (13,1,'Croacia - Croatian League HNL',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (13,1,'Corea del Sur - South Korea's K-League',1);</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -1890,14 +1921,14 @@
         <v>1</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (14,1,'Dinamarca - Danish Super League',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (14,1,'Croacia - Croatian League HNL',1);</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -1908,14 +1939,14 @@
         <v>1</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (15,1,'Ecuador - Ecuador Serie A',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (15,1,'Dinamarca - Danish Super League',1);</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -1926,14 +1957,14 @@
         <v>1</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (16,1,'Egypto - Egyptian Premier League',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (16,1,'Ecuador - Ecuador Serie A ',1);</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -1944,14 +1975,14 @@
         <v>1</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (17,1,'Emiratos Arabes Unidos - UAE League Emirates',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (17,1,'Egypto - Egyptian Premier League',1);</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -1962,14 +1993,14 @@
         <v>1</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (18,1,'Escocia - PremierShip Scotland',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (18,1,'Emiratos Arabes Unidos - UAE League Emirates',1);</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -1980,14 +2011,14 @@
         <v>1</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (19,1,'Eslovaquia - Slovak Super League',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (19,1,'Escocia - PremierShip Scotland',1);</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -1998,14 +2029,14 @@
         <v>1</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (20,1,'Eslovenia - Slovenian PrvaLiga',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (20,1,'Eslovaquia - Slovak Super League',1);</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -2016,14 +2047,14 @@
         <v>1</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (21,1,'España - Spanish Primera Division Copa del Rey',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (21,1,'Eslovenia - Slovenian PrvaLiga',1);</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -2034,14 +2065,14 @@
         <v>1</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (22,1,'Finlandia - Finnish league Veikkausliiga',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (22,1,'España - Spanish Primera Division Copa del Rey',1);</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -2052,14 +2083,14 @@
         <v>1</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (23,1,'Francia - French Ligue 1 Ligue 2 Coupe de la Ligue',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (23,1,'Finlandia - Finnish league Veikkausliiga',1);</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -2070,14 +2101,14 @@
         <v>1</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (24,1,'Grecia - Greek Super League Greece',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (24,1,'Francia - French Ligue 1 Ligue 2 Coupe de la Ligue',1);</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -2088,14 +2119,14 @@
         <v>1</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (25,1,'Hungria - Hungarian League Nemzeti Bajnokság',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (25,1,'Grecia - Greek Super League Greece',1);</v>
       </c>
     </row>
     <row r="27" spans="2:6">
@@ -2106,14 +2137,14 @@
         <v>1</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="2">
+        <v>117</v>
+      </c>
+      <c r="E27" s="6">
         <v>1</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (26,1,'Inglaterra - English Premier League FA Cup',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (26,1,'Holanda - Dutch League Eredivisie',1);</v>
       </c>
     </row>
     <row r="28" spans="2:6">
@@ -2124,14 +2155,14 @@
         <v>1</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (27,1,'Islandia - Football Association of Iceland',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (27,1,'Hungria - Hungarian League Nemzeti Bajnokság',1);</v>
       </c>
     </row>
     <row r="29" spans="2:6">
@@ -2142,14 +2173,14 @@
         <v>1</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="2">
+        <v>118</v>
+      </c>
+      <c r="E29" s="6">
         <v>1</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (28,1,'Israel - Israeli Premier League Ligat ha'Al',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (28,1,'India - I-League',1);</v>
       </c>
     </row>
     <row r="30" spans="2:6">
@@ -2160,14 +2191,14 @@
         <v>1</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (29,1,'Italia - Italian Serie A Serie B',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (29,1,'Inglaterra - English Premier League FA Cup',1);</v>
       </c>
     </row>
     <row r="31" spans="2:6">
@@ -2178,14 +2209,14 @@
         <v>1</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (30,1,'Japon - Japanese J-League',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (30,1,'Islandia - Football Association of Iceland',1);</v>
       </c>
     </row>
     <row r="32" spans="2:6">
@@ -2196,14 +2227,14 @@
         <v>1</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (31,1,'Lituania - Lithuanian A Lyga',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (31,1,'Israel - Israeli Premier League Ligat ha'Al',1);</v>
       </c>
     </row>
     <row r="33" spans="2:6">
@@ -2214,14 +2245,14 @@
         <v>1</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (32,1,'Marruecos - Morocco League Botola',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (32,1,'Italia - Italian Serie A Serie B',1);</v>
       </c>
     </row>
     <row r="34" spans="2:6">
@@ -2232,14 +2263,14 @@
         <v>1</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (33,1,'Mexico - Mexican League MX',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (33,1,'Japon - Japanese J-League',1);</v>
       </c>
     </row>
     <row r="35" spans="2:6">
@@ -2250,14 +2281,14 @@
         <v>1</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (34,1,'Noruega - Norwegian Tippeligaen',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (34,1,'Lituania - Lithuanian A Lyga',1);</v>
       </c>
     </row>
     <row r="36" spans="2:6">
@@ -2268,14 +2299,14 @@
         <v>1</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E36" s="2">
         <v>1</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (35,1,'Perú - Peruvian Primera División',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (35,1,'Marruecos - Morocco League Botola',1);</v>
       </c>
     </row>
     <row r="37" spans="2:6">
@@ -2286,14 +2317,14 @@
         <v>1</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E37" s="2">
         <v>1</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (36,1,'Polonia - Premier League Poland Ekstraklasa',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (36,1,'Mexico - Mexican League MX',1);</v>
       </c>
     </row>
     <row r="38" spans="2:6">
@@ -2304,14 +2335,14 @@
         <v>1</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E38" s="2">
         <v>1</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (37,1,'Portugal - Portuguese Liga Sagres',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (37,1,'Noruega - Norwegian Tippeligaen',1);</v>
       </c>
     </row>
     <row r="39" spans="2:6">
@@ -2322,14 +2353,14 @@
         <v>1</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E39" s="2">
+        <v>119</v>
+      </c>
+      <c r="E39" s="6">
         <v>1</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (38,1,'Republica Checa - Czech Liga League',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (38,1,'Paraguay - Paraguay Primera División',1);</v>
       </c>
     </row>
     <row r="40" spans="2:6">
@@ -2340,14 +2371,14 @@
         <v>1</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (39,1,'Rumania - Soccer Romania Liga I',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (39,1,'Perú - Peruvian Primera División',1);</v>
       </c>
     </row>
     <row r="41" spans="2:6">
@@ -2358,14 +2389,14 @@
         <v>1</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E41" s="2">
         <v>1</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (40,1,'Serbia - Serbian SuperLiga',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (40,1,'Polonia - Premier League Poland Ekstraklasa',1);</v>
       </c>
     </row>
     <row r="42" spans="2:6">
@@ -2376,14 +2407,14 @@
         <v>1</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E42" s="2">
         <v>1</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (41,1,'Suecia - Swedish League Allsvenskan',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (41,1,'Portugal - Portuguese Liga Sagres',1);</v>
       </c>
     </row>
     <row r="43" spans="2:6">
@@ -2394,14 +2425,14 @@
         <v>1</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E43" s="2">
         <v>1</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (42,1,'Suiza - Swiss Super League',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (42,1,'Republica Checa - Czech Liga League',1);</v>
       </c>
     </row>
     <row r="44" spans="2:6">
@@ -2412,14 +2443,14 @@
         <v>1</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E44" s="2">
         <v>1</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (43,1,'Turquia - Turkish SuperLiga',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (43,1,'Rumania - Soccer Romania Liga I',1);</v>
       </c>
     </row>
     <row r="45" spans="2:6">
@@ -2430,14 +2461,14 @@
         <v>1</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E45" s="2">
+        <v>120</v>
+      </c>
+      <c r="E45" s="6">
         <v>1</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (44,1,'Ucrania - Ukrainian Premier League',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (44,1,'Rusia - Russian Premier League',1);</v>
       </c>
     </row>
     <row r="46" spans="2:6">
@@ -2448,14 +2479,14 @@
         <v>1</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E46" s="2">
         <v>1</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (45,1,'Uruguay - Uruguayan Primera División',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (45,1,'Serbia - Serbian SuperLiga',1);</v>
       </c>
     </row>
     <row r="47" spans="2:6">
@@ -2466,14 +2497,14 @@
         <v>1</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E47" s="2">
         <v>1</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (46,1,'USA - USA Major League',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (46,1,'Suecia - Swedish League Allsvenskan',1);</v>
       </c>
     </row>
     <row r="48" spans="2:6">
@@ -2484,14 +2515,14 @@
         <v>1</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="E48" s="2">
         <v>1</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (47,1,'UEFA Champions League',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (47,1,'Suiza - Swiss Super League',1);</v>
       </c>
     </row>
     <row r="49" spans="2:6">
@@ -2502,14 +2533,14 @@
         <v>1</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (48,1,'UEFA Europa League',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (48,1,'Turquia - Turkish SuperLiga',1);</v>
       </c>
     </row>
     <row r="50" spans="2:6">
@@ -2520,14 +2551,14 @@
         <v>1</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="E50" s="2">
         <v>1</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (49,1,'Eurocopa',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (49,1,'Ucrania - Ukrainian Premier League',1);</v>
       </c>
     </row>
     <row r="51" spans="2:6">
@@ -2538,14 +2569,14 @@
         <v>1</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="E51" s="2">
         <v>1</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (50,1,'UEFA Super Cup',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (50,1,'Uruguay - Uruguayan Primera División',1);</v>
       </c>
     </row>
     <row r="52" spans="2:6">
@@ -2556,14 +2587,14 @@
         <v>1</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E52" s="2">
         <v>1</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (51,1,'Derby Cup',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (51,1,'USA - USA Major League',1);</v>
       </c>
     </row>
     <row r="53" spans="2:6">
@@ -2574,14 +2605,14 @@
         <v>1</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E53" s="2">
         <v>1</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (52,1,'Emirates Cup',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (52,1,'UEFA Champions League',1);</v>
       </c>
     </row>
     <row r="54" spans="2:6">
@@ -2592,14 +2623,14 @@
         <v>1</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E54" s="2">
         <v>1</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (53,1,'Copa del Mundo',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (53,1,'UEFA Europa League',1);</v>
       </c>
     </row>
     <row r="55" spans="2:6">
@@ -2610,104 +2641,104 @@
         <v>1</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E55" s="2">
         <v>1</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (54,1,'Audi Cup',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (54,1,'Eurocopa',1);</v>
       </c>
     </row>
     <row r="56" spans="2:6">
       <c r="B56">
         <v>55</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56">
         <v>1</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E56" s="2">
         <v>1</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (55,1,'Mundial Clubes FIFA',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (55,1,'UEFA Super Cup',1);</v>
       </c>
     </row>
     <row r="57" spans="2:6">
       <c r="B57">
         <v>56</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="E57" s="2">
         <v>1</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (56,1,'CONCACAF Liga de Campeones',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (56,1,'Derby Cup',1);</v>
       </c>
     </row>
     <row r="58" spans="2:6">
       <c r="B58">
         <v>57</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="E58" s="2">
         <v>1</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (57,1,'Copa Libertadores',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (57,1,'Emirates Cup',1);</v>
       </c>
     </row>
     <row r="59" spans="2:6">
       <c r="B59">
         <v>58</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="E59" s="2">
         <v>1</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (58,1,'Copa Sudamericana',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (58,1,'Copa del Mundo',1);</v>
       </c>
     </row>
     <row r="60" spans="2:6">
       <c r="B60">
         <v>59</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="6">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2">
         <v>1</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (59,1,'Campeonato Africano de Naciones',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (59,1,'Audi Cup',1);</v>
       </c>
     </row>
     <row r="61" spans="2:6">
@@ -2718,14 +2749,14 @@
         <v>1</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E61" s="6">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2">
         <v>1</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (60,1,'FIFA',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (60,1,'Mundial Clubes FIFA',1);</v>
       </c>
     </row>
     <row r="62" spans="2:6">
@@ -2736,14 +2767,14 @@
         <v>1</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="E62" s="2">
         <v>1</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (61,1,'FOOTBALL',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (61,1,'CONCACAF Liga de Campeones',1);</v>
       </c>
     </row>
     <row r="63" spans="2:6">
@@ -2751,17 +2782,17 @@
         <v>62</v>
       </c>
       <c r="C63" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E63" s="2">
         <v>1</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (62,2,'NBA',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (62,1,'Copa Libertadores',1);</v>
       </c>
     </row>
     <row r="64" spans="2:6">
@@ -2769,17 +2800,17 @@
         <v>63</v>
       </c>
       <c r="C64" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E64" s="2">
         <v>1</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (63,2,'NCAA',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (63,1,'Copa Sudamericana',1);</v>
       </c>
     </row>
     <row r="65" spans="2:6">
@@ -2787,17 +2818,17 @@
         <v>64</v>
       </c>
       <c r="C65" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="2">
+        <v>5</v>
+      </c>
+      <c r="E65" s="6">
         <v>1</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (64,2,'Euroliga',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (64,1,'Campeonato Africano de Naciones',1);</v>
       </c>
     </row>
     <row r="66" spans="2:6">
@@ -2805,17 +2836,17 @@
         <v>65</v>
       </c>
       <c r="C66" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="2">
+        <v>110</v>
+      </c>
+      <c r="E66" s="6">
         <v>1</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (65,2,'Eurocup',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (65,1,'FIFA',1);</v>
       </c>
     </row>
     <row r="67" spans="2:6">
@@ -2823,17 +2854,17 @@
         <v>66</v>
       </c>
       <c r="C67" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E67" s="2">
         <v>1</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" ref="F67:F106" si="1">CONCATENATE("INSERT INTO league (id, id_sport, name, show_icon) VALUES (",B67,",",C67,",'",D67,"',",E67,");")</f>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (66,2,'WNBA',1);</v>
+        <f t="shared" ref="F67:F111" si="1">CONCATENATE("INSERT INTO league (id, id_sport, name, show_icon) VALUES (",B67,",",C67,",'",D67,"',",E67,");")</f>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (66,1,'FOOTBALL',1);</v>
       </c>
     </row>
     <row r="68" spans="2:6">
@@ -2844,14 +2875,14 @@
         <v>2</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E68" s="6">
+        <v>6</v>
+      </c>
+      <c r="E68" s="2">
         <v>1</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (67,2,'Liga Sudamericana de Basquet',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (67,2,'NBA',1);</v>
       </c>
     </row>
     <row r="69" spans="2:6">
@@ -2862,14 +2893,14 @@
         <v>2</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="E69" s="2">
         <v>1</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (68,2,'FIBA',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (68,2,'NCAA',1);</v>
       </c>
     </row>
     <row r="70" spans="2:6">
@@ -2880,14 +2911,14 @@
         <v>2</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E70" s="2">
         <v>1</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (69,2,'BASKETBALL',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (69,2,'Euroliga',1);</v>
       </c>
     </row>
     <row r="71" spans="2:6">
@@ -2895,17 +2926,17 @@
         <v>70</v>
       </c>
       <c r="C71" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E71" s="2">
         <v>1</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (70,3,'TENNIS',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (70,2,'Eurocup',1);</v>
       </c>
     </row>
     <row r="72" spans="2:6">
@@ -2913,17 +2944,17 @@
         <v>71</v>
       </c>
       <c r="C72" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E72" s="2">
         <v>1</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (71,4,'NHL',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (71,2,'WNBA',1);</v>
       </c>
     </row>
     <row r="73" spans="2:6">
@@ -2931,17 +2962,17 @@
         <v>72</v>
       </c>
       <c r="C73" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E73" s="2">
+        <v>112</v>
+      </c>
+      <c r="E73" s="6">
         <v>1</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (72,4,'ICE HOCKEY',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (72,2,'Liga Sudamericana de Basquet',1);</v>
       </c>
     </row>
     <row r="74" spans="2:6">
@@ -2949,17 +2980,17 @@
         <v>73</v>
       </c>
       <c r="C74" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E74" s="2">
         <v>1</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (73,5,'Rugby Top 14',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (73,2,'FIBA',1);</v>
       </c>
     </row>
     <row r="75" spans="2:6">
@@ -2967,17 +2998,17 @@
         <v>74</v>
       </c>
       <c r="C75" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E75" s="2">
         <v>1</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (74,5,'Super League Rugby',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (74,2,'BASKETBALL',1);</v>
       </c>
     </row>
     <row r="76" spans="2:6">
@@ -2985,17 +3016,17 @@
         <v>75</v>
       </c>
       <c r="C76" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E76" s="2">
         <v>1</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (75,5,'NRL',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (75,3,'TENNIS',1);</v>
       </c>
     </row>
     <row r="77" spans="2:6">
@@ -3003,17 +3034,17 @@
         <v>76</v>
       </c>
       <c r="C77" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E77" s="2">
         <v>1</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (76,5,'Sevens World Cup',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (76,4,'NHL',1);</v>
       </c>
     </row>
     <row r="78" spans="2:6">
@@ -3021,17 +3052,17 @@
         <v>77</v>
       </c>
       <c r="C78" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E78" s="2">
         <v>1</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (77,5,'Super Rugby',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (77,4,'ICE HOCKEY',1);</v>
       </c>
     </row>
     <row r="79" spans="2:6">
@@ -3042,14 +3073,14 @@
         <v>5</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E79" s="2">
         <v>1</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (78,5,'RUGBY',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (78,5,'Rugby Top 14',1);</v>
       </c>
     </row>
     <row r="80" spans="2:6">
@@ -3057,17 +3088,17 @@
         <v>79</v>
       </c>
       <c r="C80" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E80" s="2">
         <v>1</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (79,6,'NFL',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (79,5,'Super League Rugby',1);</v>
       </c>
     </row>
     <row r="81" spans="2:6">
@@ -3075,17 +3106,17 @@
         <v>80</v>
       </c>
       <c r="C81" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E81" s="2">
         <v>1</v>
       </c>
       <c r="F81" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (80,6,'NCAAF',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (80,5,'NRL',1);</v>
       </c>
     </row>
     <row r="82" spans="2:6">
@@ -3093,17 +3124,17 @@
         <v>81</v>
       </c>
       <c r="C82" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E82" s="2">
         <v>1</v>
       </c>
       <c r="F82" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (81,6,'CFL',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (81,5,'Sevens World Cup',1);</v>
       </c>
     </row>
     <row r="83" spans="2:6">
@@ -3111,35 +3142,35 @@
         <v>82</v>
       </c>
       <c r="C83" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="E83" s="2">
         <v>1</v>
       </c>
       <c r="F83" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (82,6,'AMERICAN FOOTBALL',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (82,5,'Super Rugby',1);</v>
       </c>
     </row>
     <row r="84" spans="2:6">
       <c r="B84">
         <v>83</v>
       </c>
-      <c r="C84" s="4">
-        <v>7</v>
+      <c r="C84" s="1">
+        <v>5</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E84" s="2">
         <v>1</v>
       </c>
       <c r="F84" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (83,7,'BOX',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (83,5,'RUGBY',1);</v>
       </c>
     </row>
     <row r="85" spans="2:6">
@@ -3147,17 +3178,17 @@
         <v>84</v>
       </c>
       <c r="C85" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E85" s="2">
         <v>1</v>
       </c>
       <c r="F85" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (84,7,'UFC',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (84,6,'NFL',1);</v>
       </c>
     </row>
     <row r="86" spans="2:6">
@@ -3165,17 +3196,17 @@
         <v>85</v>
       </c>
       <c r="C86" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E86" s="2">
         <v>1</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (85,7,'WWE',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (85,6,'NCAAF',1);</v>
       </c>
     </row>
     <row r="87" spans="2:6">
@@ -3183,35 +3214,35 @@
         <v>86</v>
       </c>
       <c r="C87" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E87" s="2">
         <v>1</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (86,7,'TNA',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (86,6,'CFL',1);</v>
       </c>
     </row>
     <row r="88" spans="2:6">
       <c r="B88">
         <v>87</v>
       </c>
-      <c r="C88" s="4">
-        <v>8</v>
+      <c r="C88" s="1">
+        <v>6</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E88" s="2">
         <v>1</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (87,8,'Formula 1',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (87,6,'AMERICAN FOOTBALL',1);</v>
       </c>
     </row>
     <row r="89" spans="2:6">
@@ -3219,143 +3250,143 @@
         <v>88</v>
       </c>
       <c r="C89" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E89" s="2">
         <v>1</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (88,8,'NASCAR',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (88,7,'BOX',1);</v>
       </c>
     </row>
     <row r="90" spans="2:6">
       <c r="B90">
         <v>89</v>
       </c>
-      <c r="C90" s="4">
-        <v>8</v>
+      <c r="C90" s="1">
+        <v>7</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E90" s="2">
         <v>1</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (89,8,'MOTORSPORTS',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (89,7,'UFC',1);</v>
       </c>
     </row>
     <row r="91" spans="2:6">
       <c r="B91">
         <v>90</v>
       </c>
-      <c r="C91" s="5">
-        <v>9</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>39</v>
+      <c r="C91" s="1">
+        <v>7</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="E91" s="2">
         <v>1</v>
       </c>
       <c r="F91" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (90,9,'GOLF',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (90,7,'WWE',1);</v>
       </c>
     </row>
     <row r="92" spans="2:6">
       <c r="B92">
         <v>91</v>
       </c>
-      <c r="C92" s="3">
-        <v>10</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>37</v>
+      <c r="C92" s="1">
+        <v>7</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="E92" s="2">
         <v>1</v>
       </c>
       <c r="F92" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (91,10,'DARTS',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (91,7,'TNA',1);</v>
       </c>
     </row>
     <row r="93" spans="2:6">
       <c r="B93">
         <v>92</v>
       </c>
-      <c r="C93" s="3">
-        <v>11</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>36</v>
+      <c r="C93" s="4">
+        <v>8</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E93" s="2">
         <v>1</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (92,11,'POKER',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (92,8,'Formula 1',1);</v>
       </c>
     </row>
     <row r="94" spans="2:6">
       <c r="B94">
         <v>93</v>
       </c>
-      <c r="C94" s="3">
-        <v>12</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>35</v>
+      <c r="C94" s="4">
+        <v>8</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="E94" s="2">
         <v>1</v>
       </c>
       <c r="F94" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (93,12,'SNOOKER',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (93,8,'NASCAR',1);</v>
       </c>
     </row>
     <row r="95" spans="2:6">
       <c r="B95">
         <v>94</v>
       </c>
-      <c r="C95" s="3">
-        <v>13</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>38</v>
+      <c r="C95" s="4">
+        <v>8</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="E95" s="2">
         <v>1</v>
       </c>
       <c r="F95" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (94,13,'HANDBALL',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (94,8,'MOTORSPORTS',1);</v>
       </c>
     </row>
     <row r="96" spans="2:6">
       <c r="B96">
         <v>95</v>
       </c>
-      <c r="C96" s="3">
-        <v>14</v>
+      <c r="C96" s="5">
+        <v>9</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E96" s="2">
         <v>1</v>
       </c>
       <c r="F96" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (95,14,'VOLLEYBALL',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (95,9,'GOLF',1);</v>
       </c>
     </row>
     <row r="97" spans="2:6">
@@ -3363,17 +3394,17 @@
         <v>96</v>
       </c>
       <c r="C97" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E97" s="2">
         <v>1</v>
       </c>
       <c r="F97" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (96,15,'ESPN',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (96,10,'DARTS',1);</v>
       </c>
     </row>
     <row r="98" spans="2:6">
@@ -3381,17 +3412,17 @@
         <v>97</v>
       </c>
       <c r="C98" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E98" s="2">
         <v>1</v>
       </c>
       <c r="F98" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (97,15,'TV',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (97,11,'POKER',1);</v>
       </c>
     </row>
     <row r="99" spans="2:6">
@@ -3399,17 +3430,17 @@
         <v>98</v>
       </c>
       <c r="C99" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E99" s="2">
         <v>1</v>
       </c>
       <c r="F99" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (98,16,'ATLETISMO',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (98,12,'SNOOKER',1);</v>
       </c>
     </row>
     <row r="100" spans="2:6">
@@ -3417,17 +3448,17 @@
         <v>99</v>
       </c>
       <c r="C100" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E100" s="2">
         <v>1</v>
       </c>
       <c r="F100" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (99,16,'CICLISMO',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (99,13,'HANDBALL',1);</v>
       </c>
     </row>
     <row r="101" spans="2:6">
@@ -3435,17 +3466,17 @@
         <v>100</v>
       </c>
       <c r="C101" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E101" s="2">
         <v>1</v>
       </c>
       <c r="F101" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (100,16,'PING PONG',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (100,14,'VOLLEYBALL',1);</v>
       </c>
     </row>
     <row r="102" spans="2:6">
@@ -3453,17 +3484,17 @@
         <v>101</v>
       </c>
       <c r="C102" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E102" s="2">
         <v>1</v>
       </c>
       <c r="F102" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (101,16,'HORSE RACING',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (101,15,'ESPN',1);</v>
       </c>
     </row>
     <row r="103" spans="2:6">
@@ -3471,17 +3502,17 @@
         <v>102</v>
       </c>
       <c r="C103" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E103" s="2">
         <v>1</v>
       </c>
       <c r="F103" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (102,16,'BADMINTON',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (102,15,'TV',1);</v>
       </c>
     </row>
     <row r="104" spans="2:6">
@@ -3492,14 +3523,14 @@
         <v>16</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="E104" s="2">
         <v>1</v>
       </c>
       <c r="F104" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (103,16,'NATACIÓN',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (103,16,'ATLETISMO',1);</v>
       </c>
     </row>
     <row r="105" spans="2:6">
@@ -3510,14 +3541,14 @@
         <v>16</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E105" s="6">
+        <v>33</v>
+      </c>
+      <c r="E105" s="2">
         <v>1</v>
       </c>
       <c r="F105" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (104,16,'OLYMPIC GAMES RIO 2016',1);</v>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (104,16,'CICLISMO',1);</v>
       </c>
     </row>
     <row r="106" spans="2:6">
@@ -3528,14 +3559,104 @@
         <v>16</v>
       </c>
       <c r="D106" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E106" s="2">
+        <v>1</v>
+      </c>
+      <c r="F106" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (105,16,'PING PONG',1);</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6">
+      <c r="B107">
+        <v>106</v>
+      </c>
+      <c r="C107" s="3">
+        <v>16</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E107" s="2">
+        <v>1</v>
+      </c>
+      <c r="F107" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (106,16,'HORSE RACING',1);</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6">
+      <c r="B108">
+        <v>107</v>
+      </c>
+      <c r="C108" s="3">
+        <v>16</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E108" s="2">
+        <v>1</v>
+      </c>
+      <c r="F108" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (107,16,'BADMINTON',1);</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="B109">
+        <v>108</v>
+      </c>
+      <c r="C109" s="3">
+        <v>16</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E109" s="2">
+        <v>1</v>
+      </c>
+      <c r="F109" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (108,16,'NATACIÓN',1);</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="B110">
+        <v>109</v>
+      </c>
+      <c r="C110" s="3">
+        <v>16</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E110" s="6">
+        <v>1</v>
+      </c>
+      <c r="F110" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (109,16,'OLYMPIC GAMES RIO 2016',1);</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="B111">
+        <v>110</v>
+      </c>
+      <c r="C111" s="3">
+        <v>16</v>
+      </c>
+      <c r="D111" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E106" s="6">
-        <v>1</v>
-      </c>
-      <c r="F106" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (105,16,'OTHERS',1);</v>
+      <c r="E111" s="6">
+        <v>1</v>
+      </c>
+      <c r="F111" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO league (id, id_sport, name, show_icon) VALUES (110,16,'OTHERS',1);</v>
       </c>
     </row>
   </sheetData>
